--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS_2024\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B751994E-A7A7-4E76-A642-280D4C680027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EB0776-DD12-4EF7-9D86-0D15B955F6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C125EB91-963B-401F-BBB1-B6239F31E363}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9420" xr2:uid="{C125EB91-963B-401F-BBB1-B6239F31E363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -39,22 +39,10 @@
     <t>level_id</t>
   </si>
   <si>
-    <t>staff-04</t>
-  </si>
-  <si>
-    <t>admin-02</t>
-  </si>
-  <si>
-    <t>Angel-Solo</t>
-  </si>
-  <si>
-    <t>Hertin-Nganjuk</t>
-  </si>
-  <si>
-    <t>customer-2</t>
-  </si>
-  <si>
-    <t>Syava-Sidoarjo</t>
+    <t>bella-Pontianak</t>
+  </si>
+  <si>
+    <t>staff-84</t>
   </si>
 </sst>
 </file>
@@ -416,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CA00F6-AE02-4E72-AA5C-DCFB47CF1A47}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,43 +434,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
         <v>123456</v>
       </c>
     </row>
